--- a/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
+++ b/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="277">
   <si>
     <t>Date</t>
   </si>
@@ -846,6 +846,9 @@
   </si>
   <si>
     <t>2019-02-01</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
   </si>
 </sst>
 </file>
@@ -2276,6 +2279,11 @@
         <v>275</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3669,6 +3677,11 @@
         <v>275</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5062,6 +5075,11 @@
         <v>275</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6455,6 +6473,11 @@
         <v>275</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7848,6 +7871,11 @@
         <v>275</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9241,6 +9269,11 @@
         <v>275</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10634,6 +10667,11 @@
         <v>275</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
+++ b/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="278">
   <si>
     <t>Date</t>
   </si>
@@ -849,6 +849,9 @@
   </si>
   <si>
     <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
   </si>
 </sst>
 </file>
@@ -2284,6 +2287,11 @@
         <v>276</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3682,6 +3690,11 @@
         <v>276</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5080,6 +5093,11 @@
         <v>276</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6478,6 +6496,11 @@
         <v>276</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7876,6 +7899,11 @@
         <v>276</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9274,6 +9302,11 @@
         <v>276</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10672,6 +10705,11 @@
         <v>276</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
+++ b/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="279">
   <si>
     <t>Date</t>
   </si>
@@ -852,6 +852,9 @@
   </si>
   <si>
     <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2019-05-01</t>
   </si>
 </sst>
 </file>
@@ -2292,6 +2295,11 @@
         <v>277</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3695,6 +3703,11 @@
         <v>277</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5098,6 +5111,11 @@
         <v>277</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6501,6 +6519,11 @@
         <v>277</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7904,6 +7927,11 @@
         <v>277</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9307,6 +9335,11 @@
         <v>277</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10710,6 +10743,11 @@
         <v>277</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
+++ b/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="280">
   <si>
     <t>Date</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>2019-05-01</t>
+  </si>
+  <si>
+    <t>2019-06-01</t>
   </si>
 </sst>
 </file>
@@ -2300,6 +2303,11 @@
         <v>278</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3708,6 +3716,11 @@
         <v>278</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5116,6 +5129,11 @@
         <v>278</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6524,6 +6542,11 @@
         <v>278</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7932,6 +7955,11 @@
         <v>278</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9340,6 +9368,11 @@
         <v>278</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10748,6 +10781,11 @@
         <v>278</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
+++ b/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="281">
   <si>
     <t>Date</t>
   </si>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t>2019-06-01</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
   </si>
 </sst>
 </file>
@@ -2308,6 +2311,11 @@
         <v>279</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3721,6 +3729,11 @@
         <v>279</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5134,6 +5147,11 @@
         <v>279</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6547,6 +6565,11 @@
         <v>279</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7960,6 +7983,11 @@
         <v>279</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9373,6 +9401,11 @@
         <v>279</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10786,6 +10819,11 @@
         <v>279</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
+++ b/images/Zillow/Raw Data/_ZHVI Data/NeighborhoodSB_ZHVI_ByType.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="283">
   <si>
     <t>Date</t>
   </si>
@@ -861,6 +861,12 @@
   </si>
   <si>
     <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2019-08-01</t>
+  </si>
+  <si>
+    <t>2019-09-01</t>
   </si>
 </sst>
 </file>
@@ -2316,6 +2322,16 @@
         <v>280</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3734,6 +3750,16 @@
         <v>280</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5152,6 +5178,16 @@
         <v>280</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6570,6 +6606,16 @@
         <v>280</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7988,6 +8034,16 @@
         <v>280</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9406,6 +9462,16 @@
         <v>280</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10824,6 +10890,16 @@
         <v>280</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
